--- a/src/Data/Registration.xlsx
+++ b/src/Data/Registration.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kris\WebDriverworkspace\AutomationPracticeTest\src\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="4305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="5985"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="1" r:id="rId1"/>
+    <sheet name="Register" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
   <si>
     <t>Test ID</t>
   </si>
@@ -32,10 +28,10 @@
     <t>title</t>
   </si>
   <si>
-    <t>firstNameCust</t>
-  </si>
-  <si>
-    <t>lastNameCust</t>
+    <t>firstName1</t>
+  </si>
+  <si>
+    <t>lastName1</t>
   </si>
   <si>
     <t>email</t>
@@ -44,13 +40,19 @@
     <t>password</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
+    <t>DOBday</t>
+  </si>
+  <si>
+    <t>DOBmonth</t>
+  </si>
+  <si>
+    <t>DOByear</t>
+  </si>
+  <si>
+    <t>firstName2</t>
+  </si>
+  <si>
+    <t>lastName2</t>
   </si>
   <si>
     <t>company</t>
@@ -68,7 +70,7 @@
     <t>state</t>
   </si>
   <si>
-    <t>zip/postal</t>
+    <t>postcode</t>
   </si>
   <si>
     <t>country</t>
@@ -89,43 +91,121 @@
     <t>Expected</t>
   </si>
   <si>
+    <t>1R</t>
+  </si>
+  <si>
+    <t>2R</t>
+  </si>
+  <si>
+    <t>3R</t>
+  </si>
+  <si>
+    <t>4R</t>
+  </si>
+  <si>
+    <t>5R</t>
+  </si>
+  <si>
+    <t>6R</t>
+  </si>
+  <si>
+    <t>7R</t>
+  </si>
+  <si>
+    <t>8R</t>
+  </si>
+  <si>
+    <t>9R</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>mrs</t>
+  </si>
+  <si>
+    <t>kris</t>
+  </si>
+  <si>
     <t>gil</t>
   </si>
   <si>
-    <t>m@lala.com</t>
-  </si>
-  <si>
-    <t>5 luth st</t>
+    <t>test@hot.com</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>11R</t>
+  </si>
+  <si>
+    <t>12R</t>
+  </si>
+  <si>
+    <t>12 Rosepark</t>
   </si>
   <si>
     <t>Balbriggan</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>kris</t>
-  </si>
-  <si>
-    <t>6 luth st</t>
-  </si>
-  <si>
-    <t>7 luth st</t>
-  </si>
-  <si>
-    <t>8 luth st</t>
-  </si>
-  <si>
-    <t>10 luth st</t>
-  </si>
-  <si>
-    <t>11 luth st</t>
-  </si>
-  <si>
-    <t>12 luth st</t>
-  </si>
-  <si>
-    <t>13 luth st</t>
+    <t>lalalala</t>
+  </si>
+  <si>
+    <t>allala</t>
+  </si>
+  <si>
+    <t>018415267</t>
+  </si>
+  <si>
+    <t>087556644</t>
+  </si>
+  <si>
+    <t>087556645</t>
+  </si>
+  <si>
+    <t>me@hot.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 8 errors You must register at least one phone number. lastname is required. firstname is required. passwd is required. address1 is required. city is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 4 errors lastname is required. passwd is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 6 errors firstname is required. email is invalid. passwd is required. city is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 6 errors lastname is required. email is invalid. passwd is required. address1 is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 errors firstname is required. email is invalid. passwd is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 errors email is invalid. passwd is required. city is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 8 errors You must register at least one phone number. lastname is required. firstname is required. email is invalid. passwd is required. address1 is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 3 errors passwd is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 5 errors lastname is required. passwd is required. address1 is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 4 errors passwd is required. city is required. The Zip/Postal code you've entered is invalid. It must follow this format: 00000 This country requires you to choose a State. </t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>15Rosepark</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -163,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,17 +251,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,28 +566,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
-    <col min="16" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="13" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="55.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,276 +651,655 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1899</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1900</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>45678</v>
+      </c>
+      <c r="R4" s="2">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>34567</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2">
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2">
         <v>45678</v>
       </c>
-      <c r="S2">
-        <v>871234567</v>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>34567</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3">
+    <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="2">
         <v>45678</v>
       </c>
-      <c r="S3">
-        <v>871234567</v>
+      <c r="R8" s="2">
+        <v>21</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>45678</v>
+      </c>
+      <c r="R10" s="2">
         <v>21</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4">
-        <v>34567</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2016</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="2">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="2"/>
+      <c r="V11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2">
         <v>45678</v>
       </c>
-      <c r="S4">
-        <v>871234567</v>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>12345</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5">
-        <v>45678</v>
-      </c>
-      <c r="S5">
-        <v>871234567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>34567</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6">
-        <v>45678</v>
-      </c>
-      <c r="S6">
-        <v>871234567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7">
-        <v>34567</v>
-      </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7">
-        <v>45678</v>
-      </c>
-      <c r="S7">
-        <v>871234567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8">
-        <v>34567</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8">
-        <v>45678</v>
-      </c>
-      <c r="S8">
-        <v>871234567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>34567</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="S9">
-        <v>871234567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10">
-        <v>34567</v>
-      </c>
-      <c r="K10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="V4" r:id="rId1"/>
+    <hyperlink ref="V6" r:id="rId2"/>
+    <hyperlink ref="V8" r:id="rId3"/>
+    <hyperlink ref="V11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/Data/Registration.xlsx
+++ b/src/Data/Registration.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_projects\AutomationPractice\AutomationPracticeTest\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14550" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Test ID</t>
   </si>
@@ -279,7 +279,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,6 +351,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -635,21 +637,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="O5" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="20" max="21" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="54.85546875" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="54.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -762,11 +764,11 @@
         <v>30</v>
       </c>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -811,7 +813,7 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -860,7 +862,7 @@
         <v>42</v>
       </c>
       <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -909,11 +911,11 @@
         <v>43</v>
       </c>
       <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
+      <c r="W5" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
@@ -960,7 +962,7 @@
         <v>47</v>
       </c>
       <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1011,11 +1013,11 @@
         <v>51</v>
       </c>
       <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1062,11 +1064,11 @@
         <v>54</v>
       </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="2" t="s">
+      <c r="W8" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1113,11 +1115,11 @@
         <v>57</v>
       </c>
       <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
+      <c r="W9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1162,11 +1164,11 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2" t="s">
+      <c r="W10" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1205,7 +1207,7 @@
         <v>30</v>
       </c>
       <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
+      <c r="W11" s="6" t="s">
         <v>82</v>
       </c>
     </row>
